--- a/Structure_tender.xlsx
+++ b/Structure_tender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svarovsky\WebstormProjects\tenderhub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C644E7-B454-4E48-8CA9-59969EFBBF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C526481-F01E-45FC-91DF-88B2224AB062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1440" windowWidth="33450" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1215" windowWidth="33450" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Ограждающие конструкции котлована</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Обьем работ</t>
+  </si>
+  <si>
+    <t>Примечание</t>
   </si>
 </sst>
 </file>
@@ -597,10 +600,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,10 +611,10 @@
     <col min="1" max="1" width="11.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="77" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -624,8 +627,11 @@
       <c r="D1" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -638,8 +644,9 @@
       <c r="D2" s="7">
         <v>816</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -648,8 +655,9 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -662,8 +670,9 @@
       <c r="D4" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
@@ -672,8 +681,9 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -686,8 +696,9 @@
       <c r="D6" s="7">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
@@ -696,8 +707,9 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -710,8 +722,9 @@
       <c r="D8" s="7">
         <v>465</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>27</v>
       </c>
@@ -720,8 +733,9 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -734,8 +748,9 @@
       <c r="D10" s="7">
         <v>865</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>28</v>
       </c>
@@ -744,8 +759,9 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -758,8 +774,9 @@
       <c r="D12" s="7">
         <v>831</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>29</v>
       </c>
@@ -768,8 +785,9 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>7</v>
       </c>
@@ -778,8 +796,9 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
@@ -792,8 +811,9 @@
       <c r="D15" s="7">
         <v>680</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
@@ -806,8 +826,9 @@
       <c r="D16" s="7">
         <v>980</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
@@ -820,8 +841,9 @@
       <c r="D17" s="7">
         <v>471</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>20</v>
       </c>
@@ -834,8 +856,9 @@
       <c r="D18" s="7">
         <v>485</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
@@ -848,8 +871,9 @@
       <c r="D19" s="7">
         <v>345</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>22</v>
       </c>
@@ -862,25 +886,28 @@
       <c r="D20" s="7">
         <v>810</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
     </row>
   </sheetData>
